--- a/src/analysis_examples/circadb/results_jtk/cosinor_10389581_ypel2_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10389581_ypel2_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.3690566738096291, 0.46995545337484484]</t>
+          <t>[0.3691006962088813, 0.4699114309755926]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6.727951529228449e-14</v>
+        <v>6.616929226765933e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>6.727951529228449e-14</v>
+        <v>6.616929226765933e-14</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6666843268879239</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.48402198706729666, 0.5362355392539384]</t>
+          <t>[0.4840495674418006, 0.5362079588794344]</t>
         </is>
       </c>
       <c r="U2" t="n">

--- a/src/analysis_examples/circadb/results_jtk/cosinor_10389581_ypel2_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10389581_ypel2_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.3691006962088813, 0.4699114309755926]</t>
+          <t>[0.3688303074776915, 0.4701818197067824]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6.616929226765933e-14</v>
+        <v>7.349676423018536e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>6.616929226765933e-14</v>
+        <v>7.349676423018536e-14</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6666843268879239</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4840495674418006, 0.5362079588794344]</t>
+          <t>[0.48403918205938534, 0.5362183442618497]</t>
         </is>
       </c>
       <c r="U2" t="n">
